--- a/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -6673,13 +6673,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>16225</v>
+        <v>16226</v>
       </c>
       <c r="D123" t="n">
         <v>5631</v>
       </c>
       <c r="E123" t="n">
-        <v>27216222</v>
+        <v>27221542</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>15396</v>
+        <v>15400</v>
       </c>
       <c r="D191" t="n">
         <v>2834</v>
       </c>
       <c r="E191" t="n">
-        <v>120970514</v>
+        <v>121660735</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10396,13 +10396,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6165</v>
+        <v>6166</v>
       </c>
       <c r="D196" t="n">
         <v>1187</v>
       </c>
       <c r="E196" t="n">
-        <v>25375594</v>
+        <v>25377136</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -11110,13 +11110,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>15496</v>
+        <v>15497</v>
       </c>
       <c r="D210" t="n">
         <v>1642</v>
       </c>
       <c r="E210" t="n">
-        <v>101021216</v>
+        <v>101032978</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -26767,13 +26767,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>7337</v>
+        <v>7338</v>
       </c>
       <c r="D517" t="n">
         <v>1391</v>
       </c>
       <c r="E517" t="n">
-        <v>29433395</v>
+        <v>29553404</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22063</v>
+        <v>22064</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132093593</v>
+        <v>132119827</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13146580</v>
+        <v>13148080</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>42285</v>
+        <v>42287</v>
       </c>
       <c r="D819" t="n">
         <v>4810</v>
       </c>
       <c r="E819" t="n">
-        <v>95172243</v>
+        <v>95173988</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50259</v>
+        <v>50260</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156896251</v>
+        <v>156899427</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21663</v>
+        <v>21665</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86093435</v>
+        <v>86096435</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90264</v>
+        <v>90266</v>
       </c>
       <c r="D853" t="n">
         <v>10475</v>
       </c>
       <c r="E853" t="n">
-        <v>232777807</v>
+        <v>232793379</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182268</v>
+        <v>182274</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1648829529</v>
+        <v>1648948938</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183920</v>
+        <v>183924</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>553854048</v>
+        <v>553860072</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51325</v>
+        <v>51326</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424142425</v>
+        <v>424197337</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114995</v>
+        <v>115002</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418785459</v>
+        <v>418825141</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11674</v>
+        <v>11675</v>
       </c>
       <c r="D893" t="n">
         <v>1922</v>
       </c>
       <c r="E893" t="n">
-        <v>54646668</v>
+        <v>54707099</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46606,13 +46606,13 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>8675</v>
+        <v>8676</v>
       </c>
       <c r="D906" t="n">
         <v>1653</v>
       </c>
       <c r="E906" t="n">
-        <v>19845091</v>
+        <v>19857259</v>
       </c>
       <c r="F906" t="inlineStr">
         <is>
@@ -48187,13 +48187,13 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>19630</v>
+        <v>19631</v>
       </c>
       <c r="D937" t="n">
         <v>4565</v>
       </c>
       <c r="E937" t="n">
-        <v>67058846</v>
+        <v>67096951</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -50278,13 +50278,13 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>6424</v>
+        <v>6427</v>
       </c>
       <c r="D978" t="n">
         <v>979</v>
       </c>
       <c r="E978" t="n">
-        <v>19297530</v>
+        <v>19897530</v>
       </c>
       <c r="F978" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25349</v>
+        <v>25350</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143668115</v>
+        <v>143673572</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>
